--- a/src/tmp/swap_chunks_b.xlsx
+++ b/src/tmp/swap_chunks_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROADtoSUCCESS\PROJECTS\Project_WL_research\week3&amp;4&amp;5&amp;6\mutt\MUTT\src\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qaed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -198,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,40 +207,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,62 +235,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -312,20 +253,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,537 +540,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="B38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="B41" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="B44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="B47" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>57</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>58</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>61</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>62</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>64</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>66</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>67</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>68</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>72</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>73</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>74</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>75</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>76</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>77</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>78</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>79</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>104</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>105</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>106</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>107</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>108</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>50</v>
       </c>
     </row>
